--- a/src/final/unblur/unblur_results.xlsx
+++ b/src/final/unblur/unblur_results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roland\Desktop\rcp_bachelor_thesis\src\final\unblurry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roland\Desktop\rcp_bachelor_thesis\src\final\unblur\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="16" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="40">
   <si>
     <t>MSE</t>
   </si>
@@ -149,6 +149,9 @@
   <si>
     <t>Optimized</t>
   </si>
+  <si>
+    <t>Test-Score</t>
+  </si>
 </sst>
 </file>
 
@@ -156,9 +159,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +246,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -308,7 +318,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -343,6 +353,10 @@
     </xf>
     <xf numFmtId="11" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -352,10 +366,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
@@ -3070,7 +3082,7 @@
   <dimension ref="B4:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3111,10 +3123,10 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
@@ -3132,25 +3144,25 @@
         <f>'NN (v)'!D$8</f>
         <v>1</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="28">
         <f>'NN (v)'!G$8</f>
         <v>4.8611111111111104E-4</v>
       </c>
       <c r="H6" s="22">
-        <f>'NN (v)'!H$8</f>
-        <v>6.2168842591083698E-2</v>
+        <f>'NN (v)'!N$8</f>
+        <v>6.4516010919163397E-2</v>
       </c>
       <c r="I6" s="22">
         <f>'NN (v)'!I$8</f>
         <v>6.2168842591083698E-2</v>
       </c>
       <c r="J6" s="10">
-        <f>'NN (v)'!J$8</f>
-        <v>0.91364203753316653</v>
+        <f>'NN (v)'!O$8</f>
+        <v>0.94813635276121955</v>
       </c>
       <c r="K6" s="10">
-        <f>'NN (v)'!K$8</f>
-        <v>0.95584624157505926</v>
+        <f>'NN (v)'!P$8</f>
+        <v>0.97372293428943102</v>
       </c>
       <c r="L6" s="10">
         <f>'NN (v)'!L$8</f>
@@ -3177,25 +3189,25 @@
         <f>'RBF (v)'!D$8</f>
         <v>2</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="28">
         <f>'RBF (v)'!G$8</f>
         <v>2.1319444444444443E-2</v>
       </c>
       <c r="H7" s="22">
-        <f>'RBF (v)'!H$8</f>
-        <v>3.2522046608038299E-2</v>
+        <f>'RBF (v)'!N$8</f>
+        <v>3.3840738591835402E-2</v>
       </c>
       <c r="I7" s="22">
         <f>'RBF (v)'!I$8</f>
         <v>3.2409215529695501E-2</v>
       </c>
       <c r="J7" s="10">
-        <f>'RBF (v)'!J$8</f>
-        <v>0.47794856216252374</v>
+        <f>'RBF (v)'!O$8</f>
+        <v>0.497328244664894</v>
       </c>
       <c r="K7" s="10">
-        <f>'RBF (v)'!K$8</f>
-        <v>0.69133824005512945</v>
+        <f>'RBF (v)'!P$8</f>
+        <v>0.70521503434406019</v>
       </c>
       <c r="L7" s="10">
         <f>'RBF (v)'!L$8</f>
@@ -3222,25 +3234,25 @@
         <f>'ESN (v)'!D$8</f>
         <v>1</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="28">
         <f>'ESN (v)'!L$8</f>
         <v>1.7824074074074076E-2</v>
       </c>
       <c r="H8" s="22">
-        <f>'ESN (v)'!M$8</f>
-        <v>2.44919597545105E-2</v>
+        <f>'ESN (v)'!S$8</f>
+        <v>2.64460224985291E-2</v>
       </c>
       <c r="I8" s="22">
         <f>'ESN (v)'!N$8</f>
         <v>2.41045603907089E-2</v>
       </c>
       <c r="J8" s="10">
-        <f>'ESN (v)'!O$8</f>
-        <v>0.35993727855729124</v>
+        <f>'ESN (v)'!T$8</f>
+        <v>0.38865445894065032</v>
       </c>
       <c r="K8" s="10">
-        <f>'ESN (v)'!P$8</f>
-        <v>0.59994772985426925</v>
+        <f>'ESN (v)'!U$8</f>
+        <v>0.6234215740096346</v>
       </c>
       <c r="L8" s="10">
         <f>'ESN (v)'!Q$8</f>
@@ -3271,13 +3283,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="29">
         <f t="shared" si="0"/>
         <v>1.7824074074074076E-2</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>2.44919597545105E-2</v>
+        <v>2.64460224985291E-2</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="0"/>
@@ -3285,11 +3297,11 @@
       </c>
       <c r="J9" s="8">
         <f t="shared" si="0"/>
-        <v>0.35993727855729124</v>
+        <v>0.38865445894065032</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" si="0"/>
-        <v>0.59994772985426925</v>
+        <v>0.6234215740096346</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" si="0"/>
@@ -3301,10 +3313,10 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="27"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
@@ -3322,25 +3334,25 @@
         <f>'NN (u)'!D$8</f>
         <v>1</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="28">
         <f>'NN (u)'!G$8</f>
         <v>6.134259259259259E-4</v>
       </c>
       <c r="H13" s="22">
-        <f>'NN (u)'!H$8</f>
-        <v>0.10089096536641599</v>
+        <f>'NN (u)'!N$8</f>
+        <v>0.102873875417859</v>
       </c>
       <c r="I13" s="22">
         <f>'NN (u)'!I$8</f>
         <v>0.10089096536641599</v>
       </c>
       <c r="J13" s="10">
-        <f>'NN (u)'!J$8</f>
-        <v>0.6768889076934077</v>
+        <f>'NN (u)'!O$8</f>
+        <v>0.69019247569774689</v>
       </c>
       <c r="K13" s="10">
-        <f>'NN (u)'!K$8</f>
-        <v>0.82273258577341379</v>
+        <f>'NN (u)'!P$8</f>
+        <v>0.83077823496872305</v>
       </c>
       <c r="L13" s="10">
         <f>'NN (u)'!L$8</f>
@@ -3367,25 +3379,25 @@
         <f>'RBF (u)'!D$8</f>
         <v>1</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="28">
         <f>'RBF (u)'!G$8</f>
         <v>2.1296296296296299E-2</v>
       </c>
       <c r="H14" s="22">
-        <f>'RBF (u)'!H$8</f>
-        <v>3.89878786710674E-2</v>
+        <f>'RBF (u)'!N$8</f>
+        <v>3.98423832023043E-2</v>
       </c>
       <c r="I14" s="22">
         <f>'RBF (u)'!I$8</f>
         <v>3.8450489086693303E-2</v>
       </c>
       <c r="J14" s="10">
-        <f>'RBF (u)'!J$8</f>
-        <v>0.26157409150657834</v>
+        <f>'RBF (u)'!O$8</f>
+        <v>0.26730705913819292</v>
       </c>
       <c r="K14" s="10">
-        <f>'RBF (u)'!K$8</f>
-        <v>0.51144314591807594</v>
+        <f>'RBF (u)'!P$8</f>
+        <v>0.5170174650224042</v>
       </c>
       <c r="L14" s="10">
         <f>'RBF (u)'!L$8</f>
@@ -3412,25 +3424,25 @@
         <f>'ESN (u)'!D$8</f>
         <v>1</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="28">
         <f>'ESN (u)'!L$8</f>
         <v>2.9560185185185189E-2</v>
       </c>
       <c r="H15" s="22">
-        <f>'ESN (u)'!M$8</f>
-        <v>2.3468715974459702E-2</v>
+        <f>'ESN (u)'!S$8</f>
+        <v>2.4427496868899199E-2</v>
       </c>
       <c r="I15" s="22">
         <f>'ESN (u)'!N$8</f>
         <v>2.2691396564518199E-2</v>
       </c>
       <c r="J15" s="10">
-        <f>'ESN (u)'!O$8</f>
-        <v>0.15745427217615662</v>
+        <f>'ESN (u)'!T$8</f>
+        <v>0.16388684173278109</v>
       </c>
       <c r="K15" s="10">
-        <f>'ESN (u)'!P$8</f>
-        <v>0.39680508083460403</v>
+        <f>'ESN (u)'!U$8</f>
+        <v>0.40482939830597914</v>
       </c>
       <c r="L15" s="10">
         <f>'ESN (u)'!Q$8</f>
@@ -3461,13 +3473,13 @@
         <f t="shared" ref="F16" si="3">INDEX(F13:F15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
         <v>1</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="29">
         <f t="shared" ref="G16" si="4">INDEX(G13:G15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
         <v>2.9560185185185189E-2</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" ref="H16" si="5">INDEX(H13:H15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
-        <v>2.3468715974459702E-2</v>
+        <v>2.4427496868899199E-2</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" ref="I16" si="6">INDEX(I13:I15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
@@ -3475,11 +3487,11 @@
       </c>
       <c r="J16" s="8">
         <f t="shared" ref="J16" si="7">INDEX(J13:J15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
-        <v>0.15745427217615662</v>
+        <v>0.16388684173278109</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ref="K16" si="8">INDEX(K13:K15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
-        <v>0.39680508083460403</v>
+        <v>0.40482939830597914</v>
       </c>
       <c r="L16" s="8">
         <f t="shared" ref="L16" si="9">INDEX(L13:L15,MATCH(MIN($H$6:$H$8),$H$6:$H$8,))</f>
@@ -3500,8 +3512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3512,7 +3524,7 @@
     <col min="15" max="17" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -3532,17 +3544,17 @@
       <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -3559,22 +3571,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-    </row>
-    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="N6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <f>INDEX(B10:B999,MATCH(MIN($H$10:$H$999),$H$10:$H$999,))</f>
         <v>15000</v>
@@ -3623,8 +3651,19 @@
         <f t="shared" si="1"/>
         <v>1.3030865436947916</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N8" s="9">
+        <v>6.4516010919163397E-2</v>
+      </c>
+      <c r="O8" s="10">
+        <f>N8/C2</f>
+        <v>0.94813635276121955</v>
+      </c>
+      <c r="P8" s="10">
+        <f>SQRT(O8)</f>
+        <v>0.97372293428943102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
@@ -3662,7 +3701,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3708,7 +3747,7 @@
       </c>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3754,7 +3793,7 @@
       </c>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3800,7 +3839,7 @@
       </c>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3846,7 +3885,7 @@
       </c>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3892,7 +3931,7 @@
       </c>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3938,7 +3977,7 @@
       </c>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -7539,10 +7578,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M97"/>
+  <dimension ref="A2:P97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7553,7 +7592,7 @@
     <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -7565,7 +7604,7 @@
       </c>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -7576,22 +7615,36 @@
         <v>7.9055254406937198E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="N6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <f t="shared" ref="B8:M8" si="0">INDEX(B10:B999,MATCH(MIN($H$10:$H$999),$H$10:$H$999,))</f>
         <v>15000</v>
@@ -7640,8 +7693,19 @@
         <f t="shared" si="0"/>
         <v>1.1296938603909228</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="9">
+        <v>0.102873875417859</v>
+      </c>
+      <c r="O8" s="10">
+        <f>N8/C2</f>
+        <v>0.69019247569774689</v>
+      </c>
+      <c r="P8" s="10">
+        <f>SQRT(O8)</f>
+        <v>0.83077823496872305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
@@ -7679,7 +7743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -7724,7 +7788,7 @@
         <v>1.202910757371366</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -7769,7 +7833,7 @@
         <v>1.2018096035417947</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -7814,7 +7878,7 @@
         <v>1.2038539189208257</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -7859,7 +7923,7 @@
         <v>1.2027760377057941</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -7904,7 +7968,7 @@
         <v>1.2063941627938517</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -7949,7 +8013,7 @@
         <v>1.2102426782164113</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -11508,11 +11572,11 @@
       <c r="I2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
@@ -12021,8 +12085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12059,16 +12123,30 @@
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
+      <c r="N6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
@@ -12118,6 +12196,17 @@
       <c r="M8" s="8">
         <f t="shared" si="1"/>
         <v>0.94248794269777569</v>
+      </c>
+      <c r="N8" s="9">
+        <v>3.3840738591835402E-2</v>
+      </c>
+      <c r="O8" s="10">
+        <f>N8/C2</f>
+        <v>0.497328244664894</v>
+      </c>
+      <c r="P8" s="10">
+        <f>SQRT(O8)</f>
+        <v>0.70521503434406019</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -18277,8 +18366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q141"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="H124" sqref="H124:H141"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18316,16 +18405,30 @@
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
+      <c r="N6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
@@ -18375,6 +18478,17 @@
       <c r="M8" s="8">
         <f t="shared" si="0"/>
         <v>0.70226242630165148</v>
+      </c>
+      <c r="N8" s="9">
+        <v>3.98423832023043E-2</v>
+      </c>
+      <c r="O8" s="10">
+        <f>N8/C2</f>
+        <v>0.26730705913819292</v>
+      </c>
+      <c r="P8" s="10">
+        <f>SQRT(O8)</f>
+        <v>0.5170174650224042</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -24230,10 +24344,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R84"/>
+  <dimension ref="A2:U84"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24245,7 +24359,7 @@
     <col min="23" max="23" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -24257,7 +24371,7 @@
       </c>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -24269,26 +24383,42 @@
       </c>
       <c r="D3" s="11"/>
     </row>
-    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <f t="shared" ref="A8:R8" si="0">INDEX(A11:A999,MATCH(MIN($M$11:$M$999),$M$11:$M$999,))</f>
+        <v>5</v>
+      </c>
       <c r="B8" s="7">
-        <f t="shared" ref="B8:R8" si="0">INDEX(B11:B999,MATCH(MIN($M$11:$M$999),$M$11:$M$999,))</f>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="C8" s="7">
@@ -24323,7 +24453,7 @@
         <f t="shared" si="0"/>
         <v>1E-4</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="33">
         <f t="shared" si="0"/>
         <v>5.0000000000000004E-6</v>
       </c>
@@ -24355,8 +24485,19 @@
         <f t="shared" si="0"/>
         <v>0.81789704210700254</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="9">
+        <v>2.64460224985291E-2</v>
+      </c>
+      <c r="T8" s="10">
+        <f>S8/C2</f>
+        <v>0.38865445894065032</v>
+      </c>
+      <c r="U8" s="10">
+        <f>SQRT(T8)</f>
+        <v>0.6234215740096346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
@@ -24409,7 +24550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -24469,7 +24610,7 @@
         <v>1.0145257582072444</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f>A10+1</f>
         <v>2</v>
@@ -24530,7 +24671,7 @@
         <v>0.87676340516951501</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" ref="A12:A16" si="1">A11+1</f>
         <v>3</v>
@@ -24591,7 +24732,7 @@
         <v>0.86922929949838723</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -24652,7 +24793,7 @@
         <v>0.858456789833142</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -24713,7 +24854,7 @@
         <v>0.81789704210700254</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -24774,7 +24915,7 @@
         <v>0.87363198260854624</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -25041,10 +25182,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T84"/>
+  <dimension ref="A2:U84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25057,7 +25198,7 @@
     <col min="28" max="28" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -25069,7 +25210,7 @@
       </c>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -25081,31 +25222,47 @@
       </c>
       <c r="D3" s="11"/>
     </row>
-    <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <f t="shared" ref="A8:R8" si="0">INDEX(A11:A999,MATCH(MIN($M$11:$M$999),$M$11:$M$999,))</f>
+        <v>5</v>
+      </c>
       <c r="B8" s="7">
-        <f t="shared" ref="B8:R8" si="0">INDEX(B11:B999,MATCH(MIN($M$11:$M$999),$M$11:$M$999,))</f>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="C8" s="7">
@@ -25172,8 +25329,19 @@
         <f t="shared" si="0"/>
         <v>0.39680508083460403</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S8" s="34">
+        <v>2.4427496868899199E-2</v>
+      </c>
+      <c r="T8" s="10">
+        <f>S8/C2</f>
+        <v>0.16388684173278109</v>
+      </c>
+      <c r="U8" s="10">
+        <f>SQRT(T8)</f>
+        <v>0.40482939830597914</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
@@ -25226,7 +25394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -25287,7 +25455,7 @@
       </c>
       <c r="T10" s="20"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f>A10+1</f>
         <v>2</v>
@@ -25349,7 +25517,7 @@
       </c>
       <c r="T11" s="20"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" ref="A12:A16" si="1">A11+1</f>
         <v>3</v>
@@ -25411,7 +25579,7 @@
       </c>
       <c r="T12" s="20"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -25473,7 +25641,7 @@
       </c>
       <c r="T13" s="20"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -25535,7 +25703,7 @@
       </c>
       <c r="T14" s="20"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -25597,7 +25765,7 @@
       </c>
       <c r="T15" s="20"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -25659,13 +25827,13 @@
       </c>
       <c r="T16" s="20"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T17" s="20"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T18" s="20"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
         <v>33</v>
       </c>
@@ -25677,14 +25845,17 @@
       </c>
       <c r="T19" s="20"/>
     </row>
-    <row r="20" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="26" t="s">
         <v>38</v>
       </c>
       <c r="O20" s="20"/>
       <c r="T20" s="20"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>5</v>
+      </c>
       <c r="B21" s="1">
         <v>15000</v>
       </c>
@@ -25732,34 +25903,34 @@
       </c>
       <c r="T21" s="20"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T22" s="20"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T23" s="20"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T24" s="20"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T25" s="20"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T26" s="20"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T27" s="20"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T31" s="14"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T32" s="14"/>
     </row>
     <row r="33" spans="20:20" x14ac:dyDescent="0.25">
